--- a/biology/Zoologie/Ctenocephalides/Ctenocephalides.xlsx
+++ b/biology/Zoologie/Ctenocephalides/Ctenocephalides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenocephalides[2] est un genre d'insectes ectoparasites de l'ordre des Siphonaptera (puces), de la famille des Pulicidae qui attaquent l'Homme, le bétail, les animaux domestiques comme la Puce du chat (Ctenocephalides felis), la Puce du chien (Ctenocephalides canis).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenocephalides est un genre d'insectes ectoparasites de l'ordre des Siphonaptera (puces), de la famille des Pulicidae qui attaquent l'Homme, le bétail, les animaux domestiques comme la Puce du chat (Ctenocephalides felis), la Puce du chien (Ctenocephalides canis).
 Ces insectes sont susceptibles d'être des vecteurs biologiques de transmission de pathogènes.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'ordre des Siphonaptera (« muni d’un siphon et dépourvu d’ailes ») anciennement appelé Aphaniptera (« ailes non apparentes »), ces puces sont des arthropodes dépourvus d’ailes (aptères), mais pourtant classés dans la sous-classe Pterygota (c'est-à-dire possédant des ailes en principe), insectes avec lesquels elles partagent de multiples caractères morphologiques et biologiques.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 février 2021) :
 Ctenocephalides arabicus (Jordan, 1925)
 Ctenocephalides brygooi Beaucournu, 1975
 Ctenocephalides canis (Curtis, 1826) - Puce du chien
@@ -585,7 +601,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenocephalides dérive de cteno, « peigne » et cephale, « tête », soit « tête à peigne ».
 </t>
